--- a/data/pca/factorExposure/factorExposure_2013-01-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-23.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0008277756104524085</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001844687176914829</v>
+      </c>
+      <c r="C2">
+        <v>0.0323992124445816</v>
+      </c>
+      <c r="D2">
+        <v>-0.003403645496862362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003763987785684165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006327267750954262</v>
+      </c>
+      <c r="C4">
+        <v>0.08459502897412605</v>
+      </c>
+      <c r="D4">
+        <v>-0.07941241720674667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000189029724256103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01417800354277106</v>
+      </c>
+      <c r="C6">
+        <v>0.1132552206296311</v>
+      </c>
+      <c r="D6">
+        <v>-0.03226576324935337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002119030563756831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005073150828235483</v>
+      </c>
+      <c r="C7">
+        <v>0.05734293237259427</v>
+      </c>
+      <c r="D7">
+        <v>-0.0344837696296926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008360972349986802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005803409620033369</v>
+      </c>
+      <c r="C8">
+        <v>0.03832046010530091</v>
+      </c>
+      <c r="D8">
+        <v>-0.04534586865349869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003467748493104716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004466115763062543</v>
+      </c>
+      <c r="C9">
+        <v>0.07068151658813773</v>
+      </c>
+      <c r="D9">
+        <v>-0.0708937307521634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002186023904836015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005410852825190339</v>
+      </c>
+      <c r="C10">
+        <v>0.05753528223863798</v>
+      </c>
+      <c r="D10">
+        <v>0.1976270483742693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002681913793722833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005768654549496846</v>
+      </c>
+      <c r="C11">
+        <v>0.08045525710959586</v>
+      </c>
+      <c r="D11">
+        <v>-0.06044539841851809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004792432715777428</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004078534663659658</v>
+      </c>
+      <c r="C12">
+        <v>0.0642119562060014</v>
+      </c>
+      <c r="D12">
+        <v>-0.04804270512773212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.0021488079560789</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008781361138902126</v>
+      </c>
+      <c r="C13">
+        <v>0.06635379226133875</v>
+      </c>
+      <c r="D13">
+        <v>-0.06262156894313488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009541611008198826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001589915387536249</v>
+      </c>
+      <c r="C14">
+        <v>0.04542893726711566</v>
+      </c>
+      <c r="D14">
+        <v>-0.007639769270834939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007231249758366486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006054530088703041</v>
+      </c>
+      <c r="C15">
+        <v>0.04261358749442061</v>
+      </c>
+      <c r="D15">
+        <v>-0.02809872611735691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0009700816132326533</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005089880947825406</v>
+      </c>
+      <c r="C16">
+        <v>0.06568183535158126</v>
+      </c>
+      <c r="D16">
+        <v>-0.04758473269127241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>6.432930026012763e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008903632603309428</v>
+      </c>
+      <c r="C20">
+        <v>0.06521698763500432</v>
+      </c>
+      <c r="D20">
+        <v>-0.04268788771082613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005716331462535204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01000130024577644</v>
+      </c>
+      <c r="C21">
+        <v>0.0214443935719826</v>
+      </c>
+      <c r="D21">
+        <v>-0.03849692595255309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01677464517297061</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006768654345412721</v>
+      </c>
+      <c r="C22">
+        <v>0.09435142376714289</v>
+      </c>
+      <c r="D22">
+        <v>-0.1074703757253155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01707520956743856</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00658620506038141</v>
+      </c>
+      <c r="C23">
+        <v>0.09514846659005871</v>
+      </c>
+      <c r="D23">
+        <v>-0.107552550648508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001352194477401571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005459784086796322</v>
+      </c>
+      <c r="C24">
+        <v>0.07638422678222688</v>
+      </c>
+      <c r="D24">
+        <v>-0.06148370956426893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003922144420864028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00302914916564289</v>
+      </c>
+      <c r="C25">
+        <v>0.07859176656959725</v>
+      </c>
+      <c r="D25">
+        <v>-0.06655255087789298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004850263244753907</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003665838612982838</v>
+      </c>
+      <c r="C26">
+        <v>0.04163998434889592</v>
+      </c>
+      <c r="D26">
+        <v>-0.02077002442547226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00589346762136599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0009444575927258032</v>
+      </c>
+      <c r="C28">
+        <v>0.106603329389111</v>
+      </c>
+      <c r="D28">
+        <v>0.3158582852111823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001019766927446018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003182237470720611</v>
+      </c>
+      <c r="C29">
+        <v>0.04912112052499429</v>
+      </c>
+      <c r="D29">
+        <v>-0.005773380295464927</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003365772021534465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009539912825055178</v>
+      </c>
+      <c r="C30">
+        <v>0.1427887766994689</v>
+      </c>
+      <c r="D30">
+        <v>-0.09213222567977818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.00110275872339721</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006249621080534302</v>
+      </c>
+      <c r="C31">
+        <v>0.04449070855963873</v>
+      </c>
+      <c r="D31">
+        <v>-0.03152728899510678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006274209551207447</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004163837356369396</v>
+      </c>
+      <c r="C32">
+        <v>0.0416545085641624</v>
+      </c>
+      <c r="D32">
+        <v>-0.01888215649918561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002703894635095559</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008369657931209926</v>
+      </c>
+      <c r="C33">
+        <v>0.08595094477321241</v>
+      </c>
+      <c r="D33">
+        <v>-0.06768945630252249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004325010543610912</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003982911443946712</v>
+      </c>
+      <c r="C34">
+        <v>0.05794737781724173</v>
+      </c>
+      <c r="D34">
+        <v>-0.0544723036215867</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001572697517069019</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004907653694863077</v>
+      </c>
+      <c r="C35">
+        <v>0.03995304408404025</v>
+      </c>
+      <c r="D35">
+        <v>-0.01730341668341752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003646951772258078</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001119669970365126</v>
+      </c>
+      <c r="C36">
+        <v>0.02440043108276058</v>
+      </c>
+      <c r="D36">
+        <v>-0.02180572873373794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002298501975341088</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009515752149621699</v>
+      </c>
+      <c r="C38">
+        <v>0.035380831662584</v>
+      </c>
+      <c r="D38">
+        <v>-0.01558537321773631</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01198412430057716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0005261714631771345</v>
+      </c>
+      <c r="C39">
+        <v>0.1161633623758974</v>
+      </c>
+      <c r="D39">
+        <v>-0.07236074235230897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01019139301662265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002651894592596504</v>
+      </c>
+      <c r="C40">
+        <v>0.08851543546074982</v>
+      </c>
+      <c r="D40">
+        <v>-0.0146626046679109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001660488947796877</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007244492542089161</v>
+      </c>
+      <c r="C41">
+        <v>0.03812878913464334</v>
+      </c>
+      <c r="D41">
+        <v>-0.03409415216331794</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002810158839118557</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004029094191961524</v>
+      </c>
+      <c r="C43">
+        <v>0.0533800851735861</v>
+      </c>
+      <c r="D43">
+        <v>-0.02337151707907673</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004232420162211741</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003438854901725362</v>
+      </c>
+      <c r="C44">
+        <v>0.1095245134311709</v>
+      </c>
+      <c r="D44">
+        <v>-0.06885008419273873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009567764820336476</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002226033770761882</v>
+      </c>
+      <c r="C46">
+        <v>0.03327471784476421</v>
+      </c>
+      <c r="D46">
+        <v>-0.03328770257922005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>6.25120633376168e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002703500169796839</v>
+      </c>
+      <c r="C47">
+        <v>0.03731164657188749</v>
+      </c>
+      <c r="D47">
+        <v>-0.02248094152252962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003653062575674363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006588397120579961</v>
+      </c>
+      <c r="C48">
+        <v>0.03026366305840337</v>
+      </c>
+      <c r="D48">
+        <v>-0.03160391893130136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01213999303682863</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.0153510573578192</v>
+      </c>
+      <c r="C49">
+        <v>0.1839936697651925</v>
+      </c>
+      <c r="D49">
+        <v>-0.012360408407798</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001650108242720793</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003620043282737193</v>
+      </c>
+      <c r="C50">
+        <v>0.04349365327214229</v>
+      </c>
+      <c r="D50">
+        <v>-0.03416220682279859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007774374371210116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004489035288079392</v>
+      </c>
+      <c r="C51">
+        <v>0.02707098215812239</v>
+      </c>
+      <c r="D51">
+        <v>-0.01960670933798685</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007834282107981513</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.0208669204402693</v>
+      </c>
+      <c r="C53">
+        <v>0.169202264539128</v>
+      </c>
+      <c r="D53">
+        <v>-0.02857188796024142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001208810997411623</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008705677839070119</v>
+      </c>
+      <c r="C54">
+        <v>0.05487156480863171</v>
+      </c>
+      <c r="D54">
+        <v>-0.04322216468569497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003856228992582327</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009450973663886381</v>
+      </c>
+      <c r="C55">
+        <v>0.1081228360830199</v>
+      </c>
+      <c r="D55">
+        <v>-0.03904073578684904</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002715444451601903</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0200744389189102</v>
+      </c>
+      <c r="C56">
+        <v>0.1742037414616444</v>
+      </c>
+      <c r="D56">
+        <v>-0.02895412983966641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007180689496900647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01974092239506934</v>
+      </c>
+      <c r="C58">
+        <v>0.1109235805471423</v>
+      </c>
+      <c r="D58">
+        <v>-0.05140061806351886</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006961918538175212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009719011607799888</v>
+      </c>
+      <c r="C59">
+        <v>0.1618810520056876</v>
+      </c>
+      <c r="D59">
+        <v>0.3162102119396313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004009898088743523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02389107778527105</v>
+      </c>
+      <c r="C60">
+        <v>0.2219021823844706</v>
+      </c>
+      <c r="D60">
+        <v>-0.032386084866212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01361225050997434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001665280400916935</v>
+      </c>
+      <c r="C61">
+        <v>0.09564868927904882</v>
+      </c>
+      <c r="D61">
+        <v>-0.05788141944838514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1637163314477956</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1448269654551001</v>
+      </c>
+      <c r="C62">
+        <v>0.09232629565118328</v>
+      </c>
+      <c r="D62">
+        <v>-0.04607235522572607</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0008255392167442285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006306116080757537</v>
+      </c>
+      <c r="C63">
+        <v>0.05534808608232691</v>
+      </c>
+      <c r="D63">
+        <v>-0.02518517105934627</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0004926914977565915</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01543434157616077</v>
+      </c>
+      <c r="C64">
+        <v>0.1059067378826574</v>
+      </c>
+      <c r="D64">
+        <v>-0.06095117965620404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00283133237172753</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01795884083293723</v>
+      </c>
+      <c r="C65">
+        <v>0.1229087944598869</v>
+      </c>
+      <c r="D65">
+        <v>-0.01779712860077061</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007752471799117748</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01314239243557125</v>
+      </c>
+      <c r="C66">
+        <v>0.1600111224050111</v>
+      </c>
+      <c r="D66">
+        <v>-0.1137085257870732</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003549289562432229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01568789257246848</v>
+      </c>
+      <c r="C67">
+        <v>0.06615715986797616</v>
+      </c>
+      <c r="D67">
+        <v>-0.02604580460324319</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006511696958123838</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0006060700457030792</v>
+      </c>
+      <c r="C68">
+        <v>0.08655310693411349</v>
+      </c>
+      <c r="D68">
+        <v>0.2578059107309667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002323998823858133</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006212666645844952</v>
+      </c>
+      <c r="C69">
+        <v>0.0506758267961105</v>
+      </c>
+      <c r="D69">
+        <v>-0.03878861330664174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003519464460455373</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001903534080857005</v>
+      </c>
+      <c r="C70">
+        <v>0.00243149217823915</v>
+      </c>
+      <c r="D70">
+        <v>-0.003233561299722187</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0004907484387723718</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005892492437420368</v>
+      </c>
+      <c r="C71">
+        <v>0.09642653261218939</v>
+      </c>
+      <c r="D71">
+        <v>0.3081194615884522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003926901517432886</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01605302016986945</v>
+      </c>
+      <c r="C72">
+        <v>0.1530148233848731</v>
+      </c>
+      <c r="D72">
+        <v>-0.02142650837412381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01181988220852869</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03084098973336858</v>
+      </c>
+      <c r="C73">
+        <v>0.2794784090879803</v>
+      </c>
+      <c r="D73">
+        <v>-0.05283688328967062</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004659355367860551</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001969382894776638</v>
+      </c>
+      <c r="C74">
+        <v>0.1047514708456265</v>
+      </c>
+      <c r="D74">
+        <v>-0.03535040294724597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002590900008435408</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01098726362756673</v>
+      </c>
+      <c r="C75">
+        <v>0.1254099920237413</v>
+      </c>
+      <c r="D75">
+        <v>-0.0232110782100102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009188802029762395</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0217667624609249</v>
+      </c>
+      <c r="C76">
+        <v>0.1486637734934911</v>
+      </c>
+      <c r="D76">
+        <v>-0.06058222107066628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008973895772792838</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02386184836809396</v>
+      </c>
+      <c r="C77">
+        <v>0.1265723945939368</v>
+      </c>
+      <c r="D77">
+        <v>-0.08869469767018666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0001738136018568898</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01479218893427692</v>
+      </c>
+      <c r="C78">
+        <v>0.09719877148093604</v>
+      </c>
+      <c r="D78">
+        <v>-0.06875995482895604</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02285459043231145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03768294848535058</v>
+      </c>
+      <c r="C79">
+        <v>0.1561610732817528</v>
+      </c>
+      <c r="D79">
+        <v>-0.03372549468216991</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006562201466028047</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01047729785256092</v>
+      </c>
+      <c r="C80">
+        <v>0.0407024812097838</v>
+      </c>
+      <c r="D80">
+        <v>-0.02862876382399069</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001255365482398455</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01535327436369915</v>
+      </c>
+      <c r="C81">
+        <v>0.1270857867663401</v>
+      </c>
+      <c r="D81">
+        <v>-0.04036974303591368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006020007290709849</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01980032259940363</v>
+      </c>
+      <c r="C82">
+        <v>0.1400956308851017</v>
+      </c>
+      <c r="D82">
+        <v>-0.04166631083865498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00855196542684304</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01005531833853772</v>
+      </c>
+      <c r="C83">
+        <v>0.05663267320513576</v>
+      </c>
+      <c r="D83">
+        <v>-0.05735853501529149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01310469934603009</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01172019767761279</v>
+      </c>
+      <c r="C84">
+        <v>0.03742158524893108</v>
+      </c>
+      <c r="D84">
+        <v>0.01246156692547113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01389621971339055</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02824558533827183</v>
+      </c>
+      <c r="C85">
+        <v>0.1241600709749443</v>
+      </c>
+      <c r="D85">
+        <v>-0.04445315000364502</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001901618259439836</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.006080131113592454</v>
+      </c>
+      <c r="C86">
+        <v>0.05118296711372823</v>
+      </c>
+      <c r="D86">
+        <v>-0.02072814872515607</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004328053738028417</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01020275895915257</v>
+      </c>
+      <c r="C87">
+        <v>0.1288207211954122</v>
+      </c>
+      <c r="D87">
+        <v>-0.07128086198254538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01172183279891985</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00278201743802394</v>
+      </c>
+      <c r="C88">
+        <v>0.06662333195423388</v>
+      </c>
+      <c r="D88">
+        <v>-0.01525522190954446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01420485873597737</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001275214413114328</v>
+      </c>
+      <c r="C89">
+        <v>0.1474909666217928</v>
+      </c>
+      <c r="D89">
+        <v>0.342751248681483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002291378759198721</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007113370820357511</v>
+      </c>
+      <c r="C90">
+        <v>0.1218655949221386</v>
+      </c>
+      <c r="D90">
+        <v>0.3204967436975402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006520829187003917</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01046059001344252</v>
+      </c>
+      <c r="C91">
+        <v>0.1020960022550677</v>
+      </c>
+      <c r="D91">
+        <v>-0.01907795767207741</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007949233451277786</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.00104151510574859</v>
+      </c>
+      <c r="C92">
+        <v>0.1361381254291602</v>
+      </c>
+      <c r="D92">
+        <v>0.3263593852280792</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0003725621794316714</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004904181816637172</v>
+      </c>
+      <c r="C93">
+        <v>0.1049982092537837</v>
+      </c>
+      <c r="D93">
+        <v>0.3041766051485018</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003343736581190038</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02257166699111996</v>
+      </c>
+      <c r="C94">
+        <v>0.1473872398203533</v>
+      </c>
+      <c r="D94">
+        <v>-0.05364702521535184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004467388923319305</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01655385469416198</v>
+      </c>
+      <c r="C95">
+        <v>0.1264994632370393</v>
+      </c>
+      <c r="D95">
+        <v>-0.05995877547481115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>9.53065598616167e-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03607962014251898</v>
+      </c>
+      <c r="C97">
+        <v>0.212860345191419</v>
+      </c>
+      <c r="D97">
+        <v>0.01448629235264805</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003213807862887097</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03668613582876559</v>
+      </c>
+      <c r="C98">
+        <v>0.2488461804560801</v>
+      </c>
+      <c r="D98">
+        <v>-0.05079812148813879</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9847542071085412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9821721348570661</v>
+      </c>
+      <c r="C99">
+        <v>-0.1166698463118378</v>
+      </c>
+      <c r="D99">
+        <v>0.02754185809849081</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009238962778884083</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003219878181123117</v>
+      </c>
+      <c r="C101">
+        <v>0.04930309034918488</v>
+      </c>
+      <c r="D101">
+        <v>-0.005903319710634331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
